--- a/medicine/Mort/Cimetière_d'Almaš/Cimetière_d'Almaš.xlsx
+++ b/medicine/Mort/Cimetière_d'Almaš/Cimetière_d'Almaš.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alma%C5%A1</t>
+          <t>Cimetière_d'Almaš</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Almaš (en serbe cyrillique : Алмашко гробље ; en serbe latin : Almaško groblje) est un cimetière orthodoxe situé à Novi Sad, la capitale de la province autonome de Voïvodine, en Serbie. En raison de sa valeur patrimoniale, il est inscrit sur la liste des entités spatiales historico-culturelles de grande importance de la République de Serbie (identifiant n° PKIC 43)[1] ; 30 tombes de personnalités historiques, culturelles et autres sont plus particulièrement inscrites sur la liste des monuments culturels protégés (n° d'identifiant SK 1589)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Almaš (en serbe cyrillique : Алмашко гробље ; en serbe latin : Almaško groblje) est un cimetière orthodoxe situé à Novi Sad, la capitale de la province autonome de Voïvodine, en Serbie. En raison de sa valeur patrimoniale, il est inscrit sur la liste des entités spatiales historico-culturelles de grande importance de la République de Serbie (identifiant n° PKIC 43) ; 30 tombes de personnalités historiques, culturelles et autres sont plus particulièrement inscrites sur la liste des monuments culturels protégés (n° d'identifiant SK 1589).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alma%C5%A1</t>
+          <t>Cimetière_d'Almaš</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Almaš se trouve au centre de la ville de Novi Sad. Son entrée est située 1 Trg mira (« place de la Paix »), à la jonction des rues Kisačka et Vojislava Ilića[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Almaš se trouve au centre de la ville de Novi Sad. Son entrée est située 1 Trg mira (« place de la Paix »), à la jonction des rues Kisačka et Vojislava Ilića.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alma%C5%A1</t>
+          <t>Cimetière_d'Almaš</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alma%C5%A1</t>
+          <t>Cimetière_d'Almaš</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Chapelle Saint-Pierre-et-Saint-Paul</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la chapelle Saint-Pierre-et-Saint-Paul est enterré l'évêque Platon Atanacković[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la chapelle Saint-Pierre-et-Saint-Paul est enterré l'évêque Platon Atanacković.
 </t>
         </is>
       </c>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alma%C5%A1</t>
+          <t>Cimetière_d'Almaš</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,9 +617,11 @@
           <t>La « demeure éternelle »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière abrite un ensemble connu sous le nom de « demeure éternelle » (en serbe : večna kuća) ; 30 tombes constituent cet ensemble classé[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière abrite un ensemble connu sous le nom de « demeure éternelle » (en serbe : večna kuća) ; 30 tombes constituent cet ensemble classé.
 Pavle Simić (1818-1876), peintre ;
 Milan Savić (1845-1930), secrétaire de la Matica srpska ;
 Đoka Mijatović (1848-1878), l'un des premiers socialistes de Voïvodine ;
